--- a/CubeMX_STM32H743VIH6_PINOUT/STM32H743VIH6_PINOUT.xlsx
+++ b/CubeMX_STM32H743VIH6_PINOUT/STM32H743VIH6_PINOUT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOKERBIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fully_Autonomous_MAV_YanQi_V3.0\CubeMX_STM32H743VIH6_PINOUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341067B6-B74E-41FF-A2F2-FBF171272508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E52C265-81E7-4CD8-AFD1-ACD79C23F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="233">
   <si>
     <t>SPI1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,42 +1093,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,6 +1126,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1457,15 +1457,15 @@
       <c r="A4" s="3"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7" t="s">
         <v>74</v>
@@ -1477,2251 +1477,2393 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q7" s="13"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="13"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q12" s="13"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="13"/>
+      <c r="P13" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="P14" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q14" s="13"/>
+      <c r="P14" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q15" s="13"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q16" s="13"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="P17" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="13"/>
+      <c r="P17" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="13"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="13"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q21" s="13"/>
+      <c r="P21" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="N22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="P22" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q22" s="13"/>
+      <c r="P22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="N31" s="24" t="s">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="N31" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="O31" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="P31" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q31" s="13"/>
+      <c r="P31" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q32" s="13"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q33" s="13"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13" t="s">
+      <c r="I34" s="10"/>
+      <c r="J34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q34" s="13"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q39" s="13"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q40" s="13"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q41" s="13"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q42" s="13"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q43" s="13"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q44" s="13"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="L45" s="25" t="s">
+      <c r="L45" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q45" s="13"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13" t="s">
+      <c r="A46" s="25"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="K46" s="25" t="s">
+      <c r="K46" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q46" s="13"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q47" s="13"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13" t="s">
+      <c r="A48" s="25"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q48" s="13"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q49" s="13"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13" t="s">
+      <c r="A50" s="25"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q50" s="13"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12" t="s">
+      <c r="A51" s="25"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I51" s="25" t="s">
+      <c r="I51" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q51" s="13"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13" t="s">
+      <c r="A52" s="25"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I52" s="25" t="s">
+      <c r="I52" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q52" s="13"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q55" s="13"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13" t="s">
+      <c r="A56" s="22"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q56" s="13"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q57" s="13"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q58" s="13"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q59" s="13"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13" t="s">
+      <c r="A60" s="23"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q60" s="13"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="24" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q61" s="13"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12" t="s">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q62" s="13"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13" t="s">
+      <c r="A63" s="24"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q63" s="13"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13" t="s">
+      <c r="A64" s="24"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q64" s="13"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13" t="s">
+      <c r="A65" s="24"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q65" s="13"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13" t="s">
+      <c r="A66" s="24"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q66" s="13"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13" t="s">
+      <c r="A67" s="24"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="24" t="s">
+      <c r="F67" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q67" s="13"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="22" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F68" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q68" s="13"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="22" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="22" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F69" s="24" t="s">
+      <c r="F69" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q69" s="13"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="16" t="s">
+      <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="F72" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q72" s="13"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="16" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
     </row>
     <row r="74" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="12" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q74" s="13"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q74" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="75" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="20"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="23" t="s">
+      <c r="A75" s="23"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F75" s="24" t="s">
+      <c r="F75" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="23"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="20"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q76" s="13"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="77" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="13" t="s">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F77" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q77" s="13"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="78" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="23" t="s">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F78" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q78" s="13"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q78" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="79" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="11"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="23" t="s">
+      <c r="A79" s="24"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q79" s="13"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="12" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q80" s="13"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13" t="s">
+      <c r="A81" s="21"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F81" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q81" s="13"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A7:A30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A67"/>
     <mergeCell ref="A39:A54"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="D62:D67"/>
@@ -3738,53 +3880,23 @@
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A7:A30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A62:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/CubeMX_STM32H743VIH6_PINOUT/STM32H743VIH6_PINOUT.xlsx
+++ b/CubeMX_STM32H743VIH6_PINOUT/STM32H743VIH6_PINOUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fully_Autonomous_MAV_YanQi_V3.0\CubeMX_STM32H743VIH6_PINOUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E52C265-81E7-4CD8-AFD1-ACD79C23F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B9B826-8A16-4160-B86D-F1FFC76CA9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="3230" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1127,29 +1127,29 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1457,15 +1457,15 @@
       <c r="A4" s="3"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7" t="s">
         <v>74</v>
@@ -1528,14 +1528,14 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1565,10 +1565,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="10" t="s">
         <v>3</v>
       </c>
@@ -1596,10 +1596,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1627,10 +1627,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1646,12 +1646,12 @@
       <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1687,10 +1687,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
         <v>3</v>
       </c>
@@ -1722,10 +1722,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1765,10 +1765,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1794,12 +1794,12 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -1831,10 +1831,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1864,10 +1864,10 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
         <v>4</v>
       </c>
@@ -1899,10 +1899,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1918,12 +1918,12 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -1955,10 +1955,10 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
@@ -1988,10 +1988,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
         <v>4</v>
       </c>
@@ -2023,10 +2023,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -2052,12 +2052,12 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -2083,10 +2083,10 @@
       <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="12" t="s">
         <v>3</v>
       </c>
@@ -2110,10 +2110,10 @@
       <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="12" t="s">
         <v>4</v>
       </c>
@@ -2137,10 +2137,10 @@
       <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -2156,12 +2156,12 @@
       <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -2187,10 +2187,10 @@
       <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="12" t="s">
         <v>3</v>
       </c>
@@ -2214,10 +2214,10 @@
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="12" t="s">
         <v>4</v>
       </c>
@@ -2241,10 +2241,10 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -2260,14 +2260,14 @@
       <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
         <v>79</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -2301,10 +2301,10 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="10" t="s">
         <v>78</v>
       </c>
@@ -2330,12 +2330,12 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -2365,10 +2365,10 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="10" t="s">
         <v>78</v>
       </c>
@@ -2398,12 +2398,12 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
         <v>81</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2427,10 +2427,10 @@
       <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="12" t="s">
         <v>78</v>
       </c>
@@ -2452,12 +2452,12 @@
       <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="26" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2487,10 +2487,10 @@
       <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="12" t="s">
         <v>78</v>
       </c>
@@ -2521,9 +2521,9 @@
       <c r="A39" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
         <v>105</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -2554,9 +2554,9 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="10" t="s">
         <v>104</v>
       </c>
@@ -2585,9 +2585,9 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
         <v>106</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -2616,9 +2616,9 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="10" t="s">
         <v>104</v>
       </c>
@@ -2645,9 +2645,9 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="25"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
         <v>107</v>
       </c>
       <c r="E43" s="10" t="s">
@@ -2678,9 +2678,9 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="10" t="s">
         <v>104</v>
       </c>
@@ -2709,11 +2709,11 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="22" t="s">
         <v>108</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -2752,9 +2752,9 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="10" t="s">
         <v>104</v>
       </c>
@@ -2789,9 +2789,9 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
         <v>109</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -2822,9 +2822,9 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="10" t="s">
         <v>104</v>
       </c>
@@ -2853,9 +2853,9 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
         <v>197</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -2884,9 +2884,9 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="10" t="s">
         <v>104</v>
       </c>
@@ -2913,9 +2913,9 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
         <v>110</v>
       </c>
       <c r="E51" s="10" t="s">
@@ -2948,9 +2948,9 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="10" t="s">
         <v>104</v>
       </c>
@@ -2981,11 +2981,11 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E53" s="12" t="s">
@@ -3010,9 +3010,9 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="12" t="s">
         <v>104</v>
       </c>
@@ -3034,11 +3034,11 @@
       <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22" t="s">
         <v>186</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -3067,9 +3067,9 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="10" t="s">
         <v>148</v>
       </c>
@@ -3096,9 +3096,9 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="10" t="s">
         <v>149</v>
       </c>
@@ -3125,9 +3125,9 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="10" t="s">
         <v>150</v>
       </c>
@@ -3154,14 +3154,14 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="22" t="s">
         <v>231</v>
       </c>
       <c r="E59" s="10" t="s">
@@ -3187,10 +3187,10 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="10" t="s">
         <v>153</v>
       </c>
@@ -3243,14 +3243,14 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20" t="s">
+      <c r="C62" s="22"/>
+      <c r="D62" s="22" t="s">
         <v>155</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -3276,10 +3276,10 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="10" t="s">
         <v>157</v>
       </c>
@@ -3303,10 +3303,10 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="10" t="s">
         <v>158</v>
       </c>
@@ -3330,10 +3330,10 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="10" t="s">
         <v>159</v>
       </c>
@@ -3357,10 +3357,10 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="10" t="s">
         <v>160</v>
       </c>
@@ -3384,10 +3384,10 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="10" t="s">
         <v>161</v>
       </c>
@@ -3411,7 +3411,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="24" t="s">
         <v>166</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -3444,7 +3444,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="14" t="s">
         <v>168</v>
       </c>
@@ -3478,11 +3478,11 @@
       <c r="A70" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="21" t="s">
         <v>171</v>
       </c>
       <c r="E70" s="12" t="s">
@@ -3505,9 +3505,9 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="12" t="s">
         <v>174</v>
       </c>
@@ -3527,14 +3527,14 @@
       <c r="Q71" s="12"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20" t="s">
+      <c r="C72" s="22"/>
+      <c r="D72" s="22" t="s">
         <v>172</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -3560,10 +3560,10 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="12" t="s">
         <v>174</v>
       </c>
@@ -3583,12 +3583,12 @@
       <c r="Q73" s="12"/>
     </row>
     <row r="74" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="26" t="s">
         <v>179</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="22" t="s">
         <v>229</v>
       </c>
       <c r="E74" s="15" t="s">
@@ -3614,15 +3614,15 @@
       </c>
     </row>
     <row r="75" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="23"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="20"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="15" t="s">
         <v>183</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -3641,15 +3641,15 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="23"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="20"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="15" t="s">
         <v>182</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -3699,7 +3699,7 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>180</v>
       </c>
       <c r="B78" s="11"/>
@@ -3728,7 +3728,7 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="24"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="10"/>
@@ -3755,12 +3755,12 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="24" t="s">
         <v>162</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="22" t="s">
         <v>163</v>
       </c>
       <c r="E80" s="10" t="s">
@@ -3786,10 +3786,10 @@
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
-      <c r="D81" s="20"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="10" t="s">
         <v>165</v>
       </c>
@@ -3814,16 +3814,63 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="A39:A54"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="A7:A30"/>
@@ -3840,63 +3887,16 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A39:A54"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="D62:D67"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
